--- a/eda/vlsp_chunk/test/column-1-analyze.xlsx
+++ b/eda/vlsp_chunk/test/column-1-analyze.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>1</t>
   </si>
@@ -31,12 +31,6 @@
     <t>nhiều, hơn, khác, lớn, gần, đủ, nghèo, khoảng, nhỏ, nhất</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>tennis, heroin, photo, diesel, Para_Games, nilông, logo, micro, bar, ximăng</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -55,22 +49,28 @@
     <t>của, cho, trong, ở, với, để, từ, vào, đến, về</t>
   </si>
   <si>
+    <t>FW</t>
+  </si>
+  <si>
+    <t>tennis, heroin, photo, diesel, micro, Para Games, nilông, ximăng, bar, logo</t>
+  </si>
+  <si>
     <t>I</t>
   </si>
   <si>
-    <t>à, ơi, Ấy, nhé, Ủa, Ô, Ôi</t>
+    <t>ơi, à, Ấy, Ô, Ôi, Ủa, nhé</t>
   </si>
   <si>
     <t>L</t>
   </si>
   <si>
-    <t>những, các, Những, mấy, vài, Các, mỗi, mọi, một_số, Mọi</t>
+    <t>những, các, Những, mấy, vài, Các, mỗi, mọi, một số, Mọi</t>
   </si>
   <si>
     <t>M</t>
   </si>
   <si>
-    <t>một, hai, ba, mỗi, 1, Một, 2, 10, Hai, triệu</t>
+    <t>một, hai, ba, mỗi, 1, Một, 10, Hai, 2, triệu</t>
   </si>
   <si>
     <t>N</t>
@@ -88,19 +88,19 @@
     <t>Np</t>
   </si>
   <si>
-    <t>Mỹ, Tùng, Hải, Thư, Thu, Thọ, Hà_Nội, Nam, Nhu, Liên</t>
+    <t>Mỹ, Tùng, Hải, Thư, Thu, Thọ, Hà Nội, Nam, Nhu, Liên</t>
   </si>
   <si>
     <t>Nu</t>
   </si>
   <si>
-    <t>đồng, m, g, km, tuổi, USD, giờ, kg, m2, m3</t>
+    <t>đồng, m, tuổi, km, g, USD, giờ, kg, m2, m3</t>
   </si>
   <si>
     <t>Ny</t>
   </si>
   <si>
-    <t>VN, HIV, CPC, DN, NTLS, ĐT, SVHS, SV, HS, L</t>
+    <t>VN, HIV, CPC, NTLS, DN, ĐT, SV, SVHS, L, HS</t>
   </si>
   <si>
     <t>P</t>
@@ -112,19 +112,13 @@
     <t>R</t>
   </si>
   <si>
-    <t>đã, không, lại, cũng, được, chỉ, đang, sẽ, ra, rất</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>phó, trưởng, nguyên, tổng, đại, phản, siêu</t>
+    <t>đã, không, lại, cũng, được, chỉ, đang, ra, sẽ, rất</t>
   </si>
   <si>
     <t>T</t>
   </si>
   <si>
-    <t>chính, ngay, cả, rồi, gì, thật, mà, Thế, đến, vậy</t>
+    <t>chính, ngay, cả, rồi, thật, gì, mà, Thế, Chính, vậy</t>
   </si>
   <si>
     <t>V</t>
@@ -136,13 +130,13 @@
     <t>X</t>
   </si>
   <si>
-    <t>như_vậy, làm_sao, như_thế_nào, nhất_là, ra_sao, ngày_một, có_lẽ, ít_nhất, ngày_càng, có_vẻ</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>CTP, 0C</t>
+    <t>như vậy, làm sao, như thế nào, nhất là, ngày một, có lẽ, ngày càng, ít nhất, ra sao, có vẻ</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>phó, trưởng, nguyên, phản, tổng, siêu, đại</t>
   </si>
 </sst>
 </file>
@@ -491,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,7 +523,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -540,7 +534,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>1676</v>
+        <v>5984</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -551,7 +545,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>5984</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -562,7 +556,7 @@
         <v>12</v>
       </c>
       <c r="C6" t="n">
-        <v>2782</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -628,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="C12" t="n">
-        <v>1864</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -683,7 +677,7 @@
         <v>34</v>
       </c>
       <c r="C17" t="n">
-        <v>13</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -694,7 +688,7 @@
         <v>36</v>
       </c>
       <c r="C18" t="n">
-        <v>291</v>
+        <v>8363</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -705,7 +699,7 @@
         <v>38</v>
       </c>
       <c r="C19" t="n">
-        <v>8363</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -716,18 +710,7 @@
         <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
